--- a/RPGSkill/Tools/TableTools/Tables/Excel/Skill/Tab_SkillData.xlsx
+++ b/RPGSkill/Tools/TableTools/Tables/Excel/Skill/Tab_SkillData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,38 @@
   </si>
   <si>
     <t>EffectId0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害判定（可以有多个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效（可以有多个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音（可以有多个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画（可以有多个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测施法距离，检测失败则不释放，-1表示不检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,40 +417,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -428,6 +466,29 @@
       </c>
       <c r="E2" t="s">
         <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
